--- a/OutputStoredData/HomeLoanData.xlsx
+++ b/OutputStoredData/HomeLoanData.xlsx
@@ -35,175 +35,175 @@
     <t>Loan Paid To Date</t>
   </si>
   <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>₹ 38,327</t>
+  </si>
+  <si>
+    <t>₹ 31,250</t>
+  </si>
+  <si>
+    <t>₹ 69,577</t>
+  </si>
+  <si>
+    <t>₹ 24,61,673</t>
+  </si>
+  <si>
+    <t>1.53%</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>₹ 38,806</t>
+  </si>
+  <si>
+    <t>₹ 30,771</t>
+  </si>
+  <si>
+    <t>₹ 24,22,867</t>
+  </si>
+  <si>
+    <t>3.09%</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>₹ 39,291</t>
+  </si>
+  <si>
+    <t>₹ 30,286</t>
+  </si>
+  <si>
+    <t>₹ 23,83,576</t>
+  </si>
+  <si>
+    <t>4.66%</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>₹ 39,782</t>
+  </si>
+  <si>
+    <t>₹ 29,795</t>
+  </si>
+  <si>
+    <t>₹ 23,43,794</t>
+  </si>
+  <si>
+    <t>6.25%</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>₹ 40,279</t>
+  </si>
+  <si>
+    <t>₹ 29,297</t>
+  </si>
+  <si>
+    <t>₹ 23,03,515</t>
+  </si>
+  <si>
+    <t>7.86%</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>₹ 40,783</t>
+  </si>
+  <si>
+    <t>₹ 28,794</t>
+  </si>
+  <si>
+    <t>₹ 22,62,732</t>
+  </si>
+  <si>
+    <t>9.49%</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>₹ 41,293</t>
+  </si>
+  <si>
+    <t>₹ 28,284</t>
+  </si>
+  <si>
+    <t>₹ 22,21,439</t>
+  </si>
+  <si>
+    <t>11.14%</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>₹ 41,809</t>
+  </si>
+  <si>
+    <t>₹ 27,768</t>
+  </si>
+  <si>
+    <t>₹ 21,79,630</t>
+  </si>
+  <si>
+    <t>12.81%</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>₹ 42,331</t>
+  </si>
+  <si>
+    <t>₹ 27,245</t>
+  </si>
+  <si>
+    <t>₹ 21,37,298</t>
+  </si>
+  <si>
+    <t>14.51%</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>₹ 42,861</t>
+  </si>
+  <si>
+    <t>₹ 26,716</t>
+  </si>
+  <si>
+    <t>₹ 20,94,438</t>
+  </si>
+  <si>
+    <t>16.22%</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>₹ 43,396</t>
+  </si>
+  <si>
+    <t>₹ 26,180</t>
+  </si>
+  <si>
+    <t>₹ 20,51,041</t>
+  </si>
+  <si>
+    <t>17.96%</t>
+  </si>
+  <si>
     <t>Feb</t>
-  </si>
-  <si>
-    <t>₹ 38,327</t>
-  </si>
-  <si>
-    <t>₹ 31,250</t>
-  </si>
-  <si>
-    <t>₹ 69,577</t>
-  </si>
-  <si>
-    <t>₹ 24,61,673</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>₹ 38,806</t>
-  </si>
-  <si>
-    <t>₹ 30,771</t>
-  </si>
-  <si>
-    <t>₹ 24,22,867</t>
-  </si>
-  <si>
-    <t>3.09%</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>₹ 39,291</t>
-  </si>
-  <si>
-    <t>₹ 30,286</t>
-  </si>
-  <si>
-    <t>₹ 23,83,576</t>
-  </si>
-  <si>
-    <t>4.66%</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>₹ 39,782</t>
-  </si>
-  <si>
-    <t>₹ 29,795</t>
-  </si>
-  <si>
-    <t>₹ 23,43,794</t>
-  </si>
-  <si>
-    <t>6.25%</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>₹ 40,279</t>
-  </si>
-  <si>
-    <t>₹ 29,297</t>
-  </si>
-  <si>
-    <t>₹ 23,03,515</t>
-  </si>
-  <si>
-    <t>7.86%</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>₹ 40,783</t>
-  </si>
-  <si>
-    <t>₹ 28,794</t>
-  </si>
-  <si>
-    <t>₹ 22,62,732</t>
-  </si>
-  <si>
-    <t>9.49%</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>₹ 41,293</t>
-  </si>
-  <si>
-    <t>₹ 28,284</t>
-  </si>
-  <si>
-    <t>₹ 22,21,439</t>
-  </si>
-  <si>
-    <t>11.14%</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>₹ 41,809</t>
-  </si>
-  <si>
-    <t>₹ 27,768</t>
-  </si>
-  <si>
-    <t>₹ 21,79,630</t>
-  </si>
-  <si>
-    <t>12.81%</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>₹ 42,331</t>
-  </si>
-  <si>
-    <t>₹ 27,245</t>
-  </si>
-  <si>
-    <t>₹ 21,37,298</t>
-  </si>
-  <si>
-    <t>14.51%</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>₹ 42,861</t>
-  </si>
-  <si>
-    <t>₹ 26,716</t>
-  </si>
-  <si>
-    <t>₹ 20,94,438</t>
-  </si>
-  <si>
-    <t>16.22%</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>₹ 43,396</t>
-  </si>
-  <si>
-    <t>₹ 26,180</t>
-  </si>
-  <si>
-    <t>₹ 20,51,041</t>
-  </si>
-  <si>
-    <t>17.96%</t>
-  </si>
-  <si>
-    <t>Jan</t>
   </si>
   <si>
     <t>₹ 43,939</t>
@@ -915,27 +915,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B13" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C13" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s" s="0">
+      <c r="D13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F13" t="s" s="0">
         <v>61</v>
       </c>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="A14" t="s" s="0">
         <v>62</v>
@@ -1156,27 +1156,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B26" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C26" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="D25" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s" s="0">
+      <c r="D26" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F26" t="s" s="0">
         <v>110</v>
       </c>
     </row>
-    <row r="26"/>
     <row r="27">
       <c r="A27" t="s" s="0">
         <v>62</v>
@@ -1397,27 +1397,27 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
+    <row r="38"/>
+    <row r="39">
+      <c r="A39" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B39" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="C39" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="D38" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s" s="0">
+      <c r="D39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="F38" t="s" s="0">
+      <c r="F39" t="s" s="0">
         <v>158</v>
       </c>
     </row>
-    <row r="39"/>
     <row r="40">
       <c r="A40" t="s" s="0">
         <v>62</v>
@@ -1638,27 +1638,27 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
+    <row r="51"/>
+    <row r="52">
+      <c r="A52" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B52" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="C51" t="s" s="0">
+      <c r="C52" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="D51" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s" s="0">
+      <c r="D52" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="F51" t="s" s="0">
+      <c r="F52" t="s" s="0">
         <v>206</v>
       </c>
     </row>
-    <row r="52"/>
     <row r="53">
       <c r="A53" t="s" s="0">
         <v>62</v>
